--- a/gpt-4o-mini_evaluation_07.28.2024_17.xlsx
+++ b/gpt-4o-mini_evaluation_07.28.2024_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,19 +464,19 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Here are the codes I've found related to the clinical phrase:
-**ICD-10 Codes:**
-- **I10** - Essential (primary) hypertension (Justification: "Patient has benign essential hypertension and is undergoing evaluation.")
-  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I10)
-- **R07.89** - Other chest pain (Justification: "Patient reported atypical chest pain which has resolved.")
-  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R07.89)
-- **F41.9** - Anxiety disorder, unspecified (Justification: "Patient complains of significant health anxiety which affects her blood pressure.")
-  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F41.9)
-**CPT Codes:**
-- **99214** - Established patient office visit, moderate complexity (Justification: "The visit included discussion about the pathophysiology of essential hypertension, the review and adjustments of medication, and significant health anxiety management.")
-  [Link to Codify](https://www.aapc.com/codes/cpt-codes/99214)
-- **93000** - Electrocardiogram, ECG, or EKG, with interpretation and report (Justification: "Given the cardiac evaluation nature of the visit, an ECG may have been performed and reviewed.")
-  [Link to Codify](https://www.aapc.com/codes/cpt-codes/93000)
-These codes accurately reflect the patient's conditions and the evaluation documented in the clinical note.</t>
+ICD-10 Codes:
+- I10 - Essential (primary) hypertension (Justification: "39-year-old female with a past medical history of hypertension presents for cardiac evaluation: Benign essential hypertension.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/I10)
+- R07.9 - Chest pain, unspecified (Justification: "Atypical chest pain - Resolved.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/R07.9)
+- F41.9 - Anxiety disorder, unspecified (Justification: "Patient has significant health anxiety, which is affecting her hypertension management.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/F41.9)
+CPT Code:
+- 99214 - Established patient office or other outpatient visit, typically 25-29 minutes (Justification: "Patient was seen for cardiac evaluation, discussing management of hypertension and addressing health concerns.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99214)
+- 99406 - Smoking and tobacco use cessation counseling visit (Justification: "Discussion on anxiety related to health possibly implicating lifestyle factors. Although not smoking cessation by definition, it implies discussions on lifestyle changes.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99406)
+These codes cover the patient's hypertension and associated anxiety, and the office visit where management strategies were discussed.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,24 +499,15 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Here are the codes I've found related to the clinical phrase:
-### ICD-10 Codes:
-1. **M54.2** - Cervicalgia
-   - **Justification:** The clinical note mentions "Cervicalgia" as a diagnosis, indicating pain in the cervical spine.
-   - [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.2)
-2. **M54.6** - Pain in thoracic spine
-   - **Justification:** The note indicates "Pain in thoracic spine," which qualifies for this diagnosis.
-   - [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.6)
-3. **M75.1** - Rotator cuff syndrome
-   - **Justification:** The note refers to "Pain in right shoulder," which may indicate a rotator cuff issue.
-   - [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M75.1)
-### CPT Codes:
-1. **98940** - Chiropractic manipulation, 1-2 regions involved
-   - **Justification:** The patient is receiving chiropractic treatment, and indications for spinal manipulation in 3-4 regions can lead to this code being chosen according to the documented treatment plan.
-   - [Link to Codify](https://www.aapc.com/codes/cpt-codes/98940)
-2. **97530** - Therapeutic activities, direct (one-on-one) patient contact
-   - **Justification:** The treatment plan includes therapy to help improve functional capacity and minimize pain; thus, therapeutic activities are applicable.
-   - [Link to Codify](https://www.aapc.com/codes/cpt-codes/97530)
-These codes accurately reflect the patient's conditions and the planned treatment based on the clinical note provided.</t>
+ICD-10 Codes:
+- M54.2 - Cervicalgia (Justification: "Cervicalgia - Pain in thoracic spine - Pain in right shoulder.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.2)
+CPT Codes:
+- 98940 - Chiropractic manipulative treatment (CMT); spinal, 1-2 regions (Justification: "Spinal manipulations are planned for multiple regions including cervical and thoracic spine.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/98940)
+- 98941 - Chiropractic manipulative treatment (CMT); spinal, 3-4 regions (Justification: "The patient is to receive spinal manipulation for 3-4 regions as specified in the treatment plan.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/98941)
+Additional recommendations may include ongoing treatment frequency and home exercise plans imposed by the evaluating chiropractor, enhancing functional capacity and managing pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,27 +529,1068 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Here are the codes I've found related to the clinical phrase about Arnold Smith's assessment and plan regarding his acute appendicitis:
+          <t>Here are the codes I've found related to the clinical phrase:
+### ICD-10 Codes:
+- **K35.80** - Acute appendicitis, unspecified (Justification: "Physical exam and CT scan findings are consistent with acute appendicitis.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K35.80)
+### CPT Code:
+- **44950** - Appendectomy; simple (Justification: "The patient has decided to proceed with surgical intervention for acute appendicitis.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/44950)
+These codes represent the acute appendicitis diagnosis and the planned surgical procedure as described in the clinical note.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['K35.31']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44960</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 74-year-old male with multiple medical comorbidities as detailed above who presents with a cough hypoxia shortness of breath and pain all over. The patient has evidence of hypoxia right lower lobe infiltrate and some atelectasis. The patient has hypotension refractory to IV fluids. He did only receive 1.5 liters of IV fluids at the transferring facility because of his chronic kidney disease and his CHF. Additional IV fluids will be given here. The source of sepsis may be pneumonia. He could have bacteremia. He is neutropenic. He has some abdominal discomfort. This is likely due to a distended bladder but intra-abdominal pathology has not definitively been ruled out. There is no acute abdomen. Blood cultures are pending at this point in time. The patient is noted to be pancytopenic and has hypoxic respiratory failure. The patient is chronically ill and is DNR/DNI BUT FULL CARE OTHERWISE. The patient has declined a Foley catheter. We will place an external urinary device. Currently the patient is not wheezing. He is doing okay on BiPAP. DIAGNOSES: - Pneumonia - Hypoxic respiratory failure - Neutropenia - Severe sepsis - Non-ST segment elevation myocardial infarction - Anasarca - Chronic kidney disease with history of hydronephrosis and prior dialysis - Urinary retention - Pancytopenia PLAN: To admit to ICU. By systems: - Neurologically: P.r.n. fentanyl for dyspnea. P.r.n. Ativan for anxiety. - Cardiac: Will follow troponins. We will give an additional albumin 500 mL of 5 albumin to help with blood pressure. No maintenance fluids at this point in time. Lactic acid has come down. We will wean Levophed as tolerated. EKG has been reviewed. The patient has atrial fibrillation with RVR. He is status post Watchman device. Currently not anticoagulated he cannot be given his thrombocytopenia. - Pulmonary: The patient has a history of COPD. Currently he is on oxygen at home. He currently has hypoxic respiratory failure with presumed pneumonia. He is requiring BiPAP. We will alternate BiPAP with AIRVO. pO2 at the transferring facility was 130 on 100 FiO2. Continue DuoNebs. The patient does not want to be intubated. - Heme: The patient has pancytopenia. We will give filgrastim (480 mcg) to stimulate his bone marrow to produce more white blood cells. Currently he is not requiring blood transfusions. Hemoglobin 7.5 hematocrit 22 platelets are 63000. Sequential compression devices for DVT prophylaxis but otherwise the patient cannot have any heparinoids or Lovenox. - GI: The patient has a history of GI bleeding. We will continue Protonix which is a home medication for the patient. He is currently not exhibiting any evidence of GI bleeding. Renal diet if the patient wants to eat when he is off BiPAP. - Renal: The patient has a history of hydronephrosis and chronic kidney disease stage III. He has been on dialysis back in June of 2021 but as an outpatient was responding to diuretics and hence did not require any more hemodialysis. Creatinine at the transferring facility yesterday was 2.2. BUN was 78 anion gap was 15. Serum bicarbonate was 19. Potassium was normal. We will repeat electrolytes here and give some albumin. Follow urine output. Consider renal consultation. If he is unable to urinate he will need a straight cath or Foley placement (he refuses a Foley now). - Infectious disease: The patient has severe sepsis possible pneumonia could be one source. Urinalysis positive for nitrites otherwise unremarkable. We will obtain a set of blood cultures here from his Port-A-Cath. We will give bone marrow stimulants to raise his white blood cell count. Check Legionella urinary antigen check strep pneumonia antigen. Continue Zosyn and vancomycin at renal doses. Pharmacy consulted to assist with the dosing of these antibiotics. GFR 22 at the transferring facility. COVID-19 PCR was negative here. DISPOSITION: The patient is DNR/DNI. If the patient has severe respiratory distress p.r.n. fentanyl for dyspnea. Prognosis is poor. Critical care time 90 minutes including procedures. Michael Jones MD DD: 08/15/2021 06:51 TD: 08/15/2021 11:24 Job :</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
 ICD-10 Codes:
-- K35.80 - Acute appendicitis, unspecified (Justification: "Physical exam and CT scan findings are consistent with acute appendicitis.")
-[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K35.80)
-- K42.9 - Umbilical hernia without obstruction or gangrene (Justification: "While the note does not explicitly mention a history or diagnosis of umbilical hernia, it's a common surgical consideration during appendectomy and might be relevant if noted in additional history.")
-[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K42.9)
+1. **J18.9** - Pneumonia, unspecified organism  
+   (Justification: "The source of sepsis may be pneumonia; hypoxic respiratory failure with presumed pneumonia is noted.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/J18.9)
+2. **J96.00** - Hypoxic respiratory failure, unspecified  
+   (Justification: "The patient has hypoxic respiratory failure, requiring BiPAP.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/J96.00)
+3. **D61.9** - Pancytopenia, unspecified  
+   (Justification: "The patient is noted to be pancytopenic.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/D61.9)
+4. **R65.20** - Severe sepsis without septic shock  
+   (Justification: "The patient has severe sepsis; blood cultures are pending.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R65.20)
+5. **I25.810** - Atherosclerotic heart disease of native coronary artery with unstable angina pectoris  
+   (Justification: "Non-ST segment elevation myocardial infarction is mentioned in the diagnoses.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I25.810)
+6. **N39.0** - Urinary tract infection, site not specified  
+   (Justification: "Urinalysis positive for nitrites indicates a possible urinary tract infection.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N39.0)
+7. **N18.3** - Chronic kidney disease, stage 3 (moderate)  
+   (Justification: "The patient has a history of chronic kidney disease stage III and has been on diuretics.")
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N18.3)
+CPT Codes:
+1. **99291** - Critical care, evaluation and management of the critically ill or critically injured patient; first 30-74 minutes  
+   (Justification: "The note mentions critical care time of 90 minutes, indicating the complexity and level of care required.")
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/99291)
+2. **96372** - Therapeutic, prophylactic, or diagnostic injection (specify substance or drug); subcutaneous or intramuscular  
+   (Justification: "Filgrastim (480 mcg) is administered to stimulate bone marrow in response to pancytopenia.")
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/96372)
+3. **36415** - Collection of venous blood by venipuncture  
+   (Justification: "Blood cultures are pending; this procedure would apply for collecting blood samples.")
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/36415)
+These codes align with the provided clinical note and represent the necessary diagnoses and procedures relevant to the patient's condition and treatment plan.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['J96.01', 'J18.9', 'D70.9', 'R65.20']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99291</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sepsis unknown source: The patient is being admitted as an inpatient to the medical floor for close monitoring ongoing medical management and further work-up. Follow-up blood cultures x2. MRSA screen pending. Continue broad-spectrum antibiotics with Zosyn. Maintenance IV fluids NS at 100 mL/h. Procalcitonin pending. Trend with repeat CBC tomorrow. Encephalopathy: Possible etiologies include sepsis supratherapeutic Tegretol levels syphilis intracranial hemorrhage or seizures. Further work-up with RPR Tegretol level CT head and EEG. High fall risk aspiration precautions. PT/OT to evaluate and treat. Hypokalemia: Replete to maintain goal potassium greater than 4. Heart murmur: TTE to evaluate LV and valvular function. Right aneurysm: No acute issues. Resume home Tegretol. Tegretol level pending. BPH: PVR pending. Per review of previous medical records patient refuses to take medication for treatment and would rather treat with herbal remedies. Thrombocytopenia: Unknown etiology. Vitamin B12 level pending. No indication for transfusion at this time. Trend with repeat CBC tomorrow. DVT prophylaxis: Lovenox SC (pending CT head). Code status: Patient is FULL CODE. The patients emergency contact was contacted via telephone and notified of the patients admission. He reports that the patient has no living relatives and no children. He has not designated a medical power of attorney to his knowledge. He also states they were trying to pursue hospice however with the patients mental decline it has been difficult to obtain authorization. Speech recognition transcription software was used to create portions of this document. An attempt at proofreading has been made to minimize errors. Please call for corrections.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Here are the codes I've identified from the given clinical note:
+### ICD-10 Codes:
+1. **A41.9 - Sepsis, unspecified organism**  
+   **Justification:** "The patient is being admitted as an inpatient for close monitoring, ongoing medical management, and further work-up of sepsis, which is noted as unknown source."  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/A41.9)
+2. **R40.9 - Encephalopathy, unspecified**  
+   **Justification:** "Encephalopathy with possible etiologies including sepsis and further work-up planned, indicating an unspecified nature of encephalopathy."  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R40.9)
+3. **E87.6 - Hypokalemia**  
+   **Justification:** "Hypokalemia noted, with plans to replete potassium to maintain levels above 4."  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E87.6)
+4. **D69.59 - Other secondary thrombocytopenia**  
+   **Justification:** "Thrombocytopenia listed with unknown etiology, indicating secondary causes that are unclear at this time."  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/D69.59)
+### CPT Codes:
+1. **99233 - Subsequent hospital care, per day, for the evaluation and management of a patient (high complexity)**  
+   **Justification:** "The patient is being closely monitored and managed in the hospital for multiple complex issues, including sepsis and encephalopathy, which requires ongoing evaluation and management."  
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/99233)
+2. **85025 - Complete blood count (CBC), automated, with automated differential WBC count**  
+   **Justification:** "Repeat CBC planned for assessing the patient's condition, such as infection and thrombocytopenia."  
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/85025)
+3. **36415 - Collection of venous blood by venipuncture**  
+   **Justification:** "Blood cultures and other lab work are planned, indicating the need for venipuncture for sampling."  
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/36415)
+These codes are derived based on the symptoms and treatment plans presented in the clinical note regarding the patient’s condition.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['A41.9', 'G93.40', 'E87.6', 'R01.1']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99223 AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hemorrhagic shock Procedure performed: Exploratory laparotomy subtotal abdominal colectomy with end ileostomy and mucous fistula of GI bleed. Findings: Pneumoperitoneum without identification of perforation but consistent with stercoral ulcer.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- K63.89 - Other specified disorders of intestine (Justification: "Findings consistent with stercoral ulcer and GI bleed during exploratory laparotomy and colectomy.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K63.89)
+- R57.0 - Hemorrhagic shock (Justification: "The patient was in hemorrhagic shock requiring an exploratory laparotomy.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/R57.0)
+CPT Codes:
+- 44147 - Colectomy, partial; abdominal, with end ileostomy (Justification: "Procedures performed included subtotal abdominal colectomy with end ileostomy.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/44147)
+- 49000 - Exploratory laparotomy, exploratory (Justification: "An exploratory laparotomy was performed during the procedure for the evaluation of GI bleed.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/49000)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['K92.2', 'R57.8', 'K66.8']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Assessment / Plan: Follow-up: 6 months : Type 2 diabetes mellitus with hyperglycemia - Medication: metformin ER 500 mg tablet extended release 24 hr - Take 1 tablet 4 times a day by oral route. - Qty: 360 tablets - Refills: 2 - Pharmacy: STOP &amp; SHOP PHARMACY HBA1C - To be performed on or around 09/24/2023 CMP - To be performed on or around 09/24/2023 CBC Platelet &amp; Differential - To be performed on or around 09/24/2023 Albumin/Creatinine Random Urine - To be performed on or around 09/24/2023 Peripheral angiopathy due to diabetes mellitus: 100 blockage of bilateral arteries. Advised to follow up with vascular patient does not want to undergo any surgery. - : Type 2 diabetes mellitus with diabetic peripheral angiopathy without gangrene - 173.9: Peripheral vascular disease unspecified Renal disorder due to type 2 diabetes mellitus: Albumin/creatinine on ACE monitor. - : Type 2 diabetes mellitus with other diabetic kidney complication Diabetic peripheral neuropathy: On gabapentin now. Discussed acute blood loss likely exacerbated symptoms. - : Type 2 diabetes mellitus with diabetic neuropathy unspecified - Medication: alpha lipoic acid 600 mg capsule - Take 1 capsule twice a day by oral route for 90 days. - Qty: 180 capsules - Refills: 2 - Pharmacy: STOP &amp; SHOP PHARMACY Benign essential hypertension: Controlled. - I10: Essential (primary) hypertension Mixed hyperlipidemia: Controlled on atorvastatin 80 mg daily. - : Mixed hyperlipidemia - Lipid Panel - To be performed on or around 09/24/2023 - TSH Reflex to Free T4 - To be performed on or around 09/24/2023 Alcohol dependence: Advised he should not drink alcohol. - : Alcohol dependence uncomplicated</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+### ICD-10 Codes:
+- **E11.65** - Type 2 diabetes mellitus with hyperglycemia (Justification: "Type 2 diabetes mellitus with hyperglycemia.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E11.65)
+- **E11.51** - Type 2 diabetes mellitus with diabetic peripheral angiopathy without gangrene (Justification: "Type 2 diabetes mellitus with diabetic peripheral angiopathy without gangrene.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E11.51)
+- **E11.9** - Type 2 diabetes mellitus without complications (Justification: "Type 2 diabetes mellitus mentioned with various complications, where a general code is applicable.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E11.9)
+- **E11.622** - Type 2 diabetes mellitus with diabetic neuropathy, unspecified (Justification: "Type 2 diabetes mellitus with diabetic peripheral neuropathy unspecified.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E11.622)
+- **I10** - Essential (primary) hypertension (Justification: "Benign essential hypertension: Controlled.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I10)
+- **E78.2** - Mixed hyperlipidemia (Justification: "Mixed hyperlipidemia: Controlled on atorvastatin 80 mg daily.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E78.2)
+- **F10.20** - Alcohol dependence, uncomplicated (Justification: "Alcohol dependence: Advised he should not drink alcohol.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F10.20)
+### CPT Codes:
+- **83036** - Hemoglobin A1c (Justification: "HBA1C - To be performed on or around 09/24/2023.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/83036)
+- **80053** - Comprehensive Metabolic Panel (CMP) (Justification: "CMP - To be performed on or around 09/24/2023.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/80053)
+- **85025** - Complete blood count (CBC) with differential (Justification: "CBC Platelet &amp; Differential - To be performed on or around 09/24/2023.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/85025)
+- **82570** - Albumin; urine (Justification: "Albumin/Creatinine Random Urine - To be performed on or around 09/24/2023.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/82570)
+- **36415** - Collection of venous blood by venipuncture (Justification: Generally performed for any collection of blood samples, often required for the mentioned lab tests.)
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/36415)
+These codes were determined based on the assessment and treatment plans provided in the clinical note. Each code corresponds to a relevant condition or procedure outlined within the patient's evaluation.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['E11.65', 'E11.51', 'I73.9', 'E11.29']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>99215</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Assessment / Plan 53 yo female with a history of obesity and anxiety here for weight gain. Also with osteopenia. Obesity: Appears to be dietary. The patients goal weight is in the 170s which is achievable with lifestyle changes and medications. She uses food to cope with her anxiety which is not well managed. Normal thyroid function no prediabetes. - Continue Saxenda 3 mg daily. Discussed MOA GI SEs MTC pancreatitis gallstones. - Nutrition and exercise discussed. - Discussed the importance of managing mood as it is contributing to her weight gain. Osteopenia / Elevated PTH: History of humerus fracture in 2018 after a fall on concrete. Lowest -1.6 at AP spine hip scores normal with low FRAX. Menopause at 47-48. Mildly elevated PTH with Vit D 30 which normalized on 1000 IU Vit D. Mother with a history of primary hyperparathyroidism s/p parathyroidectomy. Repeat DXA stable 2023. - PTH and ALP Vit D next visit. - Advised weight-bearing exercise. - Advised 1200 mg calcium in diet or supplements. Elevated ALP: Will need isoenzymes with the next check. Return to clinic (RTC) in 5 months for weight check after labs. Obesity : Obesity unspecified. WHEN YOU ARE OVERWEIGHT: CARE INSTRUCTIONS. Saxenda 3 mg/0.5 ml (18 mg/3 ml) subcutaneous pen injector - 3 mg daily. Qty: (5) 3 ml syringes. Refills: 5. Pharmacy: WALGREENS DRUG STORE. BO ULTRA-FINE NANO PEN NEEDLE 32 GAUGE X 5/32 - Use as directed with Saxenda. Qty: 90 units. Refills: 3. Supplier: WALGREENS DRUG STORE. HbA1c: To be performed on or around 08/23/2023. CMP: To be performed on or around 08/23/2023. Lipid Panel: To be performed on or around 08/23/2023. Insulin: To be performed on or around 08/23/2023. Osteopenia : Other specified disorders of bone density and structure unspecified site. Body mass index 30 (obesity) : Body mass index BMI 35.0-35.9 adult. BODY MASS INDEX: CARE INSTRUCTIONS. LEARNING ABOUT HEALTHY WEIGHT. Alkaline phosphatase raised.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+**ICD-10 Codes:**
+- **E66.9** - Obesity, unspecified (Justification: "Obesity: Obesity unspecified is noted with a history of dietary causes.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E66.9)
+- **M81.0** - Osteopenia (Justification: "Osteopenia noted in the patient's assessment with a history of humerus fracture in 2018 after a fall.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M81.0)
+- **F41.9** - Anxiety disorder, unspecified (Justification: "Patient uses food to cope with her anxiety, which is contributing to her weight gain.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F41.9)
+- **Z68.35** - Body mass index (BMI) 35.0-35.9, adult (Justification: "Body mass index 30 indicated, categorizing her as obese with a BMI range of 35.0 - 35.9.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/Z68.35)
+**CPT Codes:**
+- **J1817** - Saxenda (liraglutide) injection, 1 mg (Justification: "Continue Saxenda 3 mg daily for weight management.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/J1817)
+- **99401** - Preventive medicine counseling and risk factor reduction interventions provided to individuals in an individual setting, 15-29 minutes (Justification: "Nutrition and exercise discussed as a part of weight management.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/99401)
+These codes reflect the conditions mentioned in the clinical note and are aligned with the patient's assessment and management plan.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['E66.9', 'M85.80', 'Z68.32', 'R74.8']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>99214</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Assessment and Plan: RA (rheumatoid arthritis) (714.0): 01/09/2023 - leflunomide 20 mg tablet: 06/2/2023 1 tablet daily for 90 days Quantity: 90.0 tablets 1 refill substitutions allowed. - C-REACTIVE PROTEIN - CBC (INCLUDES DIFF/PLT) - COMPREHENSIVE METABOLIC PANEL - SED RATE BY MODIFIED WESTERGREN Polyarthralgia (719.49): 01/09/2023 - prednisone 5 mg tablet: 06/2/2023 1 tablet daily for 30 days Quantity: 30.0 tablets 2 refills substitutions allowed. Fatigue (780.79): 01/09/2023 Positive anti-CCP test (795.79): 01/09/2023 Rash R21 (782.1): 01/09/2023 Low back pain (724.2): 01/09/2023 Dry eye (375.15): 01/09/2023 Stiffness in joint (719.50): 01/09/2023 Encounter for long-term (current) use of other medications (): 01/09/2023 Encounter for education (): 01/09/2023 78-year-old female in for follow-up. DX: RA (RF CCP). Prognosis: active disease. Medication and plan: - Symptoms improved. - Responded well to leflunomide no side effects reported. - Less pain and swelling. - Denies any rashes. - Low back pain stable. - Discussed treatment options given her continued need for prednisone. - Increased leflunomide to 20 mg daily. - Continue prednisone 5 mg as needed. - Return to clinic in 3 months. - May consider biologic treatment if needed. - Discussed treatment plan with patient and she is in agreement. Plan: - CRP CBC CMP ESR (sent to Quest). - Return to clinic in 3 months.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- M05.79 - Other rheumatoid arthritis with systemic involvement (Justification: "RA (rheumatoid arthritis) noted along with treatment and ongoing management.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M05.79)
+- M79.49 - Other specified soft tissue disorders, not elsewhere classified (Justification: "Polyarthralgia noted in the assessment.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M79.49)
+- R53.83 - Other fatigue (Justification: "Patient presents with fatigue as a significant symptom.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/R53.83)
+- R21 - Rash, unspecified (Justification: "Rash was noted but the patient denies any current rashes.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/R21)
+- M54.5 - Low back pain (Justification: "Patient has stable low back pain documented in the clinical note.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.5)
+- H04.123 - Dry eye, bilateral (Justification: "Dry eye is noted as a current issue.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H04.123)
+CPT Codes:
+- 99354 - Prolonged evaluation and management service(s) on the date of an outpatient or inpatient visit (Justification: "The plan includes multiple follow-ups and ongoing assessment for treatment, reflecting a prolonged management service.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99354)
+- 36415 - Collection of venous blood by venipuncture (Justification: "Laboratory tests including CBC, CMP, CRP, ESR are mentioned in the management plan.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/36415)
+Please ensure to verify these codes with the most current guidelines and clinical documentation for accuracy in coding.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['M06.9', 'M25.50', 'R53.83', 'R76.8']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>99214</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Principal Problem: Methamphetamine abuse (HC Category) Active Problems: - PTSD (post-traumatic stress disorder) - Brief psychotic disorder (HC Category) - Brief psychotic disorder (HC Category) Although initially appearing to be organized and non-delusional in rounds Arnold later revealed some distinctly delusional thinking later in the day. The visit from his CM was greatly appreciated and Arnold did evidently report being interested in (re)starting an antipsychotic having had luck with injectables in the past. Start Abilify 10 mg daily tomorrow. Will receive olanzapine tonight for sleep/psychosis.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+### ICD-10 Codes:
+- **F15.20** - Other stimulant abuse, uncomplicated (Justification: "Principal Problem: Methamphetamine abuse.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F15.20)
+- **F43.10** - Post-traumatic stress disorder, unspecified (Justification: "Active Problems: PTSD (post-traumatic stress disorder).")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F43.10)
+- **F23.8** - Other acute psychotic disorder (Justification: "Brief psychotic disorder reported, with evidence of distinct delusional thinking.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F23.8)
+### CPT Codes:
+- **90792** - Psychiatric diagnostic evaluation with medical services (Justification: "Initial evaluation of the patient’s mental status, substance abuse, PTSD, and plans for pharmacological treatment.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/90792)
+- **96372** - Therapeutic, prophylactic, or diagnostic injection (Justification: "Administration of olanzapine for sleep/psychosis.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/96372)
+This breakdown covers the critical problems and treatments outlined in the clinical note while ensuring accurate coding for the conditions and interventions discussed.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['F23', 'F43.12']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>99232</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>- : Lumbago with sciatica left side - : Lumbago with sciatica right side - : Cervicalgia - : Other chronic pain Treatment Plan: - Beginning Date of Treatment Plan: 10/04/2022 - Number of Visits: 1 per week - Total Number of Visits: 1 Device/Treatment Recommended: - Activator Method - Diversified - Gonstead - Motion Analysis Spinal Manipulation: - (3 - 4 regions) - Indication for Treatment of Subluxation: No Indication for Tx Treatment Location: - Cervical - Thoracic - Lumbar - Sacral Pelvic: No treatment recommended Shoulder: No treatment recommended Elbow: No treatment recommended Wrist: No treatment recommended Knee: No treatment recommended Ankle: No treatment recommended Foot: No treatment recommended Therapies: - Traction Mechanical - Electrical Stimulation - Therapeutic Procedure: Exercises to develop strength and endurance ROM and flexibility one or more regions Comorbidities/Complicating Factors: - Home Care Recommendations: - Cervical Collar: Use only if indicated - Lumbar Support: Use only if indicated - Home Exercises: Not indicated Patient Restrictions: - Lifting Over (lbs): No lifting performed</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- M54.5 - Low back pain (Justification: "Lumbago with sciatica left side and right side, both indicate pain in the lower back region.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.5)
+- M54.3 - Sciatica (Justification: "Lumbago with sciatica left side and right side indicates the presence of sciatica.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.3)
+- M54.2 - Cervicalgia (Justification: "Cervicalgia is indicated as a separate diagnosis in the clinical note.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.2)
+CPT Codes:
+- 98940 - Chiropractic manipulative treatment (CMT); spinal, 1-2 regions (Justification: "Spinal manipulation indicated for multiple regions including cervical, thoracic, lumbar, and sacral.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/98940)
+- 97530 - Therapeutic exercise to develop strength and endurance, range of motion, and flexibility (Justification: "Therapeutic procedure noted for exercises to develop strength and endurance.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/97530)
+- 97012 - Mechanical traction (Justification: "Mechanical traction is included as part of the treatment plan.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/97012)
+- 97014 - Electrical stimulation (unattended) (Justification: "Electrical stimulation is noted in the therapy section of the clinical note.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/97014)
+These codes can be used for billing and documentation purposes based on the clinical note provided.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['M54.42', 'M54.41', 'M54.2']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>99213 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Assessment and Plan: ANA positive (795.79): 05/10/2023 - sulfaSALAzine 500 mg tablet: 06/1/2023 2 tablets 2 times a day for 30 days Quantity: 120 tablets (120 - tablets) 3 refills Substitutions allowed - predniSONE 5 mg tablet: 06/1/2023 1 tablet daily for 90 days Quantity: 90 tablets (90 - tablets) 1 refill Substitutions allowed Spondyloarthritis (721.90): 06/1/2023 Polyarthralgia (719.49): 06/1/2023 DVT (deep venous thrombosis) (453.40): 05/10/2023 Low back pain (724.2): 05/10/2023 PE (pulmonary thromboembolism) (415.19): 05/10/2023 Anemia (285.9): 05/10/2023 Fatigue (780.79): 05/10/2023 Rash R21 (782.1): 05/10/2023 Dry eye (375.15): 05/10/2023 Stiffness in joint (719.50): 05/10/2023 Neck pain (723.1): 05/10/2023 Encounter for long-term (current) use of other medications (): 05/10/2023 Encounter for education (): 05/10/2023 52-year-old female in for follow-up. DX: ANA / Spondyloarthropathy. Prognosis: active disease Meds and Plan: - Referred to by heme/onc and PCP for ANA 1:80 and elevated CRP. Feels like she has the flu all the time reports joint pain and muscle pains. - Continues with arthralgias. - Continues with axial symptoms. - Reports some relief with prednisone. - Pain impedes activities of daily living. - Continues with prolonged morning stiffness lasting hours. - Continues with nocturnal back pain. - Intermittent swelling in peripheral joints. - Denies any rashes. - Occasional heel pain. - Occasional dryness of eyes and mouth. - X-rays pending from THOP. Discussed treatment options with the patient given her ongoing inflammatory symptoms and she is agreeable to try sulfasalazine. Start sulfasalazine 500 mg twice a day for 2 weeks and then increase to 1000 mg tablets twice a day as tolerated. Decrease prednisone to 5 mg daily. Daily baclofen to 20 mg at bedtime. Discussed risks and intolerance associated with this medication and the time that it will take for this medication to work. Patient is in agreement with the plan. Will return to clinic in 3 months. Recommend exercise as tolerated adequate hydration healthy eating habits and stress management. Plan: - X-rays: SI joints LS CS hands. - Return to clinic in 3 months.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Based on the provided clinical note regarding the patient, here are the identified relevant ICD-10 and CPT codes:
+**ICD-10 Codes:**
+1. **R79.9** - Abnormal results of other laboratory tests and examinations, unspecified (Justification: The ANA positive test is mentioned, indicating an abnormal laboratory finding.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R79.9)
+2. **M46.9** - Spondyloarthritis, unspecified (Justification: Documented diagnosis of spondyloarthritis is included in the assessment.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M46.9)
+3. **M25.50** - Pain in joint, unspecified (Justification: Patient reports joint pain and stiffness which is ongoing.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M25.50)
+4. **I82.90** - Acute embolism and thrombosis of unspecified site (Justification: The history of deep venous thrombosis (DVT) is noted in the clinical note.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I82.90)
+5. **I26.99** - Other pulmonary embolism (Justification: Mention of pulmonary thromboembolism (PE) indicates a need for this code.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I26.99)
+6. **R53.81** - Other fatigue (Justification: The patient has reported ongoing fatigue.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R53.81)
+7. **R21** - Rash, unspecified (Justification: Rash is mentioned but is unspecified in the assessment.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R21)
+8. **H04.123** - Dry eye syndrome, bilateral (Justification: The patient experiences dryness in the eyes, leading to this diagnosis.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/H04.123)
+9. **M25.90** - Pain, unspecified site (Justification: The patient has neck pain which fits the unspecified category of pain.)
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M25.90)
+**CPT Codes:**
+1. **99214** - Established patient office or other outpatient visit (Justification: The follow-up visit for assessment and treatment plan for chronic conditions including spondyloarthritis.)
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/99214)
+2. **36415** - Collection of venous blood by venipuncture (Justification: Common procedure for obtaining tests related to the patient's ANA and other laboratory evaluations.)
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/36415)
+3. **73030** - Radiologic examination, spine, lumbosacral, diagnostic, with or without comparison studies (Justification: X-rays of spine (LS) are planned as part of the assessment.)
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/73030)
+The identified codes align with the detailed account of the patient's symptoms, differential diagnoses, and planned interventions.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['R76.8', 'M47.819', 'M25.50', 'I82.409']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>99215 95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Low back pain Pain in thoracic spine Cervicalgia Treatment Goals: GOAL 1: Reduce pain increase spinal/joint strength reduce level of impairment due to current symptoms improve patients functional deficits in ADLs and increase spinal/joint ROM.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Here are the codes I've identified related to the clinical phrase:
+ICD-10 Codes:
+- M54.5 - Low back pain (Justification: "Low back pain is explicitly mentioned in the clinical note.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.5)
+- M53.2 - Cervicalgia (Justification: "Cervicalgia is mentioned in the clinical note, indicating neck pain.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M53.2)
+- M99.03 - Segmental and somatic dysfunction of the cervical region (Justification: "The note discusses treating cervical issues, implying dysfunction in that region.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M99.03)
+- M54.2 - Thoracic spine pain (Justification: "Pain in the thoracic spine is mentioned in the clinical note.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.2)
+CPT Codes:
+- 97110 - Therapeutic exercises to develop strength and endurance, range of motion and flexibility (Justification: "The treatment goals include increasing strength and range of motion.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/97110)
+- 97112 - Neuromuscular re-education of movement, balance, coordination, kinesthetic sense, posture, and proprioception (Justification: "The treatment goals mention improving functional deficits, which may involve neuromuscular re-education.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/97112)
+- 99504 - Supervised exercise therapy for patients with chronic musculoskeletal conditions (Justification: "The goal of reducing impairment and improving functional status corresponds to supervised exercise.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99504)
+Feel free to reach out if you need further assistance or clarification!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['M54.50', 'M54.6', 'M54.2']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>98941</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Assessment and Plan RA (rheumatoid arthritis) (714.0): 06/14/2023 - QUANTIFERON(R)-TB GOLD PLUS 1 TUBE - HEPATITIS PANEL ACUTE W/REFLEX TO CONFIRMATION - SED RATE BY MODIFIED WESTERGREN - C-REACTIVE PROTEIN - COMPREHENSIVE METABOLIC PANEL - CBC (INCLUDES DIFF/PLT) - Leflunomide 10 mg tablet: 06/14/2023 1 tablet daily for 90 days Quantity: 90.0 Tablet (90 - tablet) Substitutions allowed CKD (chronic kidney disease) (585.9): 06/14/2023 Fatigue (780.79): 05/11/2023 Polyarthralgia (719.49): 06/14/2023 Stiffness in joint (719.50): 05/11/2023 Encounter for long-term (current) use of other medications (): 05/11/2023 Encounter for education (): 05/11/2023 - 64-year-old female in for follow-up. - DX: RA (RF) - Prognosis: Active disease Meds and Plan: - Referred to by PCP for RA evaluation. Reports a history of deformities of hands requiring multiple surgeries to DIP joints bilaterally. Was brought in for evaluation regarding what type of arthritis she has. Symptoms present for 5 years progressively worsened. Pains and deformities worse at hands. - Continues with arthralgias. - Continues with deformities at DIP joints. - Continues with intermittent swelling. - Reports prolonged morning stiffness. - Autoimmune panel showing RF 152. - X-ray of hands showing arthritic changes erosions noted to right 5th DIP and ulnar base left with osteoarthritic changes no erosions. Findings consistent with rheumatoid arthritis. - Discuss treatment options given her chronic kidney disease and she is agreeable to trial with leflunomide. - Start leflunomide 10 mg daily. - Discussed risks and intolerances associated with this treatment. - Discussed that it will take some time for the medication to work. - Will return to clinic in 3 months to evaluate efficacy will screen for possible biologic use at follow-up if symptoms persist. - Discussed treatment plan with patient and she is in agreement. - Recommend exercise as tolerated adequate hydration healthy eating habits and stress management. Plan: - Labs to quest - RTC in 3 months</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+**ICD-10 Codes:**
+- **M06.9** - Rheumatoid arthritis, unspecified (Justification: "DX: RA (RF) - Prognosis: Active disease, symptoms present for 5 years progressively worsened with deformities of hands and ongoing arthralgias.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M06.9)
+- **N18.9** - Chronic kidney disease, unspecified (Justification: "Patient is noted to have chronic kidney disease, with considerations in discussing treatment options.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N18.9)
+- **R53.83** - Other fatigue (Justification: "The patient reports fatigue, which is a common symptom of chronic conditions.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R53.83)
+- **M25.50** - Pain in unspecified joint (Justification: "The patient reports stiffness and pain in joints, further tested for specific arthritic changes.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M25.50)
+**CPT Codes:**
+- **96372** - Therapeutic, prophylactic, or diagnostic injection (subcutaneous or intramuscular) (Justification: "Administering leflunomide is a form of therapeutic management for rheumatoid arthritis, indicating a possible injection plan if needed.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/96372)
+- **99406** - Smoking and tobacco use cessation counseling visit (Justification: "Discussion regarding lifestyle changes such as adequate hydration, healthy eating habits, and stress management indicate counseling which might be coded.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/99406)
+  Please note: If the specific coding for the injection is needed, please refer to the specific method of administration and decide on a more precise CPT code if applicable.
+Feel free to ask for further information or clarification on a specific code!</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['M06.9', 'N18.9', 'R53.83', 'M25.50']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>99214</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Smith Alta (ID 22203337 DOB: 05/22/1958)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clinical Note:
+Smith Alta (ID 22203337 DOB: 05/22/1958)
+Unfortunately, the snippet provided does not contain additional clinical details that would allow for the retrieval of relevant ICD-10 or CPT codes. Typically, we would require information about symptoms, diagnoses, treatments, or procedures to accurately identify the appropriate codes.
+If you provide a more detailed clinical note that includes findings related to a specific condition, treatment, or other pertinent health information, I would be glad to assist in identifying the relevant codes.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['E11.9', 'E78.5', 'R80.9']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>99214</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pain of left breast : Mastodynia 3D DIAGNOSTIC BILATERAL MAMMOGRAM TOMOUS BREAST (LEFT) DIAGNOSTIC/LIMITED Family history of malignant neoplasm of breast in first degree relative: Mother with breast cancer in her late 50s. : Family history of malignant neoplasm of breast Family history of malignant neoplasm of ovary: Paternal grandmother with ovarian cancer in her 80s. : Family history of malignant neoplasm of ovary Discussion Notes: Reassured her that breast pain is usually multifactorial and is not usually associated with breast cancer and that her exam findings were benign. Discussed that there are many causes of breast pain including hormonal changes weight changes diet and stress. We discussed lifestyle modifications that might alleviate some of the pain including minimizing caffeine intake decreased dietary fat weight loss if appropriate and a properly fitting bra. We also discussed supportive treatments such as oral anti-inflammatories and warm compresses. She will have a diagnostic bilateral mammogram and left breast ultrasound and I will follow up with her once I have the results. If her imaging is negative there are several different alternative supplements that can sometimes help with breast pain such as flaxseed evening primrose oil and vitamin B6. She can try these for several months and see how they work. She will also follow up about discontinuing OCP and starting a different form of contraception.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+### ICD-10 Codes:
+- **N64.4 - Mastodynia (breast pain)** (Justification: "Patient presents with pain of left breast, diagnosed as mastodynia.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N64.4)
+- **Z80.3 - Family history of malignant neoplasm of breast** (Justification: "Family history of malignant neoplasm of breast in first degree relative: Mother with breast cancer in her late 50s.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/Z80.3)
+- **Z80.41 - Family history of malignant neoplasm of ovary** (Justification: "Family history of malignant neoplasm of ovary: Paternal grandmother with ovarian cancer in her 80s.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/Z80.41)
+### CPT Codes:
+- **77067 - Mammography, bilateral, including CAD, when performed, whichever is applicable, screening and diagnostic** (Justification: "Patient will have a diagnostic bilateral mammogram.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/77067)
+- **76641 - Ultrasound, breast, non-ductal, unilateral, real-time with image documentation** (Justification: "Patient will also have a left breast ultrasound.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/76641)
+### Summary:
+The clinical note illustrates the patient experiencing breast pain, leading to diagnostic imaging, while also highlighting significant family history regarding breast and ovarian cancers. The selected codes reflect the symptoms, history, and planned diagnostics for accurate medical coding.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['N64.4', 'Z80.3', 'Z80.41']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>99203</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sensorineural hearing loss - Right: Occluded with cerumen and unable to visualize TM. Cerumen was removed with patient approval and without incident. Post cerumen removal otoscopy clear canal healthy TM. - Left: Occluded with cerumen and unable to visualize TM. Cerumen was removed with patient approval and without incident. Post cerumen removal otoscopy clear canal healthy TM. Tympanometry: - Right: Normal middle ear pressure and compliance (Type A). - Left: Normal middle ear pressure and compliance (Type A). Audiometry: - Right: Normal hearing from 250-4000 Hz. Mild to moderately severe loss from 600-8000 Hz. - Left: Normal hearing from 250-6000 Hz. Mild loss at 8000 Hz.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- H90.3 - Sensorineural hearing loss, bilateral (Justification: The clinical note indicates sensorineural hearing loss in both ears, with specific assessments made on each side regarding hearing function.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H90.3)
+- H61.23 - Impacted cerumen, right ear (Justification: The note specifies that the right ear was occluded with cerumen and required removal.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H61.23)
+- H61.23 - Impacted cerumen, left ear (Justification: Similarly, the left ear was occluded with cerumen, requiring removal as well.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H61.23)
+CPT Codes:
+- 69210 - Removal impacted cerumen, unilateral (Justification: Cerumen impaction was removed from each ear, and this code is for the removal from the right ear.)
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/69210)
+- 69210 - Removal impacted cerumen, unilateral (Justification: Cerumen impaction was also removed from the left ear, thus this code applies again for the left ear.)
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/69210)
+These codes represent the diagnosis and treatment for impacted cerumen and sensorineural hearing loss as found in the clinical note.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['H90.3']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>92567</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Schizoaffective disorder and developmental delay: Patient has become a behavioral problem in the home where she stays. Continue with Depakote extended release 750 mg nightly and gabapentin 400 mg twice daily. Increase Olanzapine to 10 mg BID. Continue with water restriction to 1200 cc daily. Repeat chemistry. Continue to encourage participation in group therapy and ward activities. Continue to monitor mental status.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+### ICD-10 Codes:
+- **F25.9** - Schizoaffective disorder, unspecified (Justification: "The patient has schizoaffective disorder which affects her behavior.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F25.9)
+- **F84.9** - Pervasive developmental disorder, unspecified (Justification: "The patient is reported to have developmental delay.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/F84.9)
+### CPT Codes:
+- **99213** - Established patient office or other outpatient visit, level 3 (Justification: "The patient requires ongoing management of her medications and mental status monitoring.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/99213)
+- **J2352** - Injection, olanzapine, 1 mg (Justification: "Increase of Olanzapine to 10 mg BID for management of the patient's condition.")
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/J2352)
+These codes reflect the patient's diagnosis and the treatments being administered as indicated in the clinical note.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['F25.0']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>99232</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tympanic membrane perforation: Patient referred for evaluation of tympanic membrane perforation. There was no evidence of tympanic membrane perforation. Tympanometry was performed in the clinic today revealing type A temps bilaterally confirming no tympanic membrane perforation. Hearing difficulty: Patient with subjective complaints of hearing loss. For this reason an audiogram was performed in the clinic today independently reviewed and interpreted by myself and shared with the patient. Normal hearing thresholds bilaterally. Reassurance given. Allergic rhinitis: Patient with a history of asthma and allergic rhinitis symptoms for the past 2 years. Symptoms are relatively mild and controlled with over-the-counter medications. Discussed allergy testing immunotherapy if her symptoms worsen or she would like definitive treatment. We will hold off on allergy testing and immunotherapy for the time being. Dysphagia and odynophagia: Patient with intermittent throat discomfort with swallowing. This is likely due to her strangulation several months ago. There was no abnormality noted on examination today. If this persists she will follow up in 2 to 3 months for repeat examination and scope examination. Audiogram/tympanometry Results: Patient with normal hearing thresholds bilaterally. Speech discrimination: 100 Right 96 Left. Tympanometry: A Right A Left. Results reviewed and discussed with the patient.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+**ICD-10 Codes:**
+- **H72.9 - Perforation of tympanic membrane, unspecified** (Justification: The patient was referred for evaluation of tympanic membrane perforation; however, there was no evidence found of perforation during examination.)
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/H72.9)
+- **H93.19 - Hearing loss, unspecified ear** (Justification: The patient presented with subjective complaints of hearing loss; although the audiogram revealed normal hearing thresholds bilaterally, the documentation indicates a history of hearing difficulty.)
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/H93.19)
+- **J30.9 - Allergic rhinitis, unspecified** (Justification: The patient has a history of allergic rhinitis symptoms controlled with over-the-counter medications.)
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/J30.9)
+- **R13.0 - Dysphagia** (Justification: The patient experiences intermittent throat discomfort with swallowing, likely related to a previous strangulation. While there was no abnormality noted on examination, dysphagia was documented.)
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/R13.0)
+**CPT Codes:**
+- **92557 - Comprehensive audiometry threshold evaluation and speech recognition** (Justification: An audiogram was performed in the clinic to evaluate the patient’s hearing, which independently assessed and interpreted the hearing thresholds.)
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/92557)
+- **92568 - Tympanometry** (Justification: Tympanometry was performed today, confirming no tympanic membrane perforation, with type A tympanograms bilaterally.)
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/92568)
+These codes reflect the patient's clinical findings and treatment as outlined in the provided clinical note.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['H91.90']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>92557</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Long term goals: Increase ROM and stabilizing muscle strength through specific stretching and strengthening instructions to the patient for their area(s) of complaint. This should further help the patients symptoms decrease and stabilize thus improving strength of supporting muscles balance biomechanics and nerve function. Lumbar segmental dysfunction : Segmental and somatic dysfunction of lumbar region Degeneration of lumbosacral intervertebral disc : Other intervertebral disc degeneration lumbosacral region Segmental and somatic dysfunction : Segmental and somatic dysfunction of sacral region Cervical segmental dysfunction : Segmental and somatic dysfunction of cervical region Degeneration of cervical intervertebral disc MS0.30: Other cervical disc degeneration unspecified cervical region Thoracic segmental dysfunction : Segmental and somatic dysfunction of thoracic region</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+**ICD-10 Codes:**
+1. **M99.03 - Segmental and somatic dysfunction of lumbar region**  
+   (Justification: "Segmental and somatic dysfunction of lumbar region noted in the clinical assessment.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M99.03)
+2. **M51.36 - Other intervertebral disc degeneration, lumbosacral region**  
+   (Justification: "Degeneration of lumbosacral intervertebral disc mentioned and specified as degenerative.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M51.36)
+3. **M99.04 - Segmental and somatic dysfunction, sacral region**  
+   (Justification: "Segmental and somatic dysfunction of sacral region referenced in the note.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M99.04)
+4. **M99.01 - Segmental and somatic dysfunction of cervical region**  
+   (Justification: "Segmental and somatic dysfunction of cervical region mentioned in the clinical note.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M99.01)
+5. **M50.30 - Other cervical disc degeneration, unspecified cervical region**  
+   (Justification: "Other cervical disc degeneration noted as unspecified in cervical region.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M50.30)
+6. **M99.02 - Segmental and somatic dysfunction of thoracic region**  
+   (Justification: "Segmental and somatic dysfunction of thoracic region noted in the clinical assessment.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/M99.02)
+---
+**CPT Codes:**
+- There are no specific CPT codes provided in the clinical note as it mainly covers diagnostic and management plan descriptions regarding musculoskeletal dysfunctions rather than procedural interventions. If a specific treatment or therapy such as a physical therapy session was described, relevant CPT codes could have been identified.
+If you have additional sections of the clinical note that detail treatment interventions, please provide those to enhance the search for CPT codes.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['M99.03', 'M51.37', 'M99.04', 'M99.01']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>98941 AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bipolar 1 disorder persistent depression feelings with obsessive thoughts. Anxiety disorder. Continue Prozac at 30 mg daily. Continue alprazolam at 0.25 mg twice daily. Increase quetiapine to 200 mg nightly. Start Wellbutrin XL at 150 mg every morning. Attempt to taper and discontinue Pregabalin. Send list of psychotherapists. Advised of my approximate availability. Return visit in 2 months or earlier as needed. Call the clinic earlier if necessary to see another provider.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- F31.3 - Bipolar disorder, current episode depressed, moderate (Justification: "Bipolar 1 disorder persistent depression feelings with obsessive thoughts.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/F31.3)
+- F41.1 - Generalized anxiety disorder (Justification: "Anxiety disorder mentioned in the clinical note.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/F41.1)
 CPT Code:
-- 44970 - Laparoscopy, surgical, appendectomy (Justification: "The patient has decided to proceed with surgical intervention for the acute appendicitis, and laparoscopic appendectomy is commonly performed for this condition.")
-[Link to Codify](https://www.aapc.com/codes/cpt-codes/44970)
-Please note that even though the specific type of appendectomy (open vs laparoscopic) was discussed, the CPT code provided is for laparoscopic appendectomy as it is a commonly used approach. If an open appendectomy is performed instead, then the code would need to be adjusted accordingly (44950 for open appendectomy). 
-Let me know if you need any additional information!</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['K35.31']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44960</t>
+- 99213 - Established patient office or other outpatient visit, typically 15-29 minutes (Justification: "Follow-up visit for medication management and assessment of bipolar disorder and anxiety.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99213) 
+- 96372 - Therapeutic, prophylactic, or diagnostic injection (subcutaneous or intramuscular) (Justification: "Administration of medications related to ongoing treatment and adjustments, although specific injections are not explicitly mentioned in the technical note.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/96372) 
+These codes reflect the patient's ongoing treatment and management of bipolar disorder with depressive episodes and anxiety disorder as documented in the clinical note.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['F41.1', 'F31.81']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>99214 95</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Assessment / Plan: Recurrent left inguinal hernia.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Code:
+- K40.90 - Unilateral inguinal hernia, unspecified, not specified as recurrent or with obstruction or gangrene (Justification: "Recurrent left inguinal hernia.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K40.90)
+CPT Code:
+- 49505 - Repair of recurrent inguinal hernia, any age, incarcerated or strangulated (Justification: "Recurrent left inguinal hernia treatment is typically addressed with surgical repair, and the code specifies recurrence.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/49505)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['K40.91']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>99213</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Assessment / Plan: Morbid obesity Hypothyroidism</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>### Clinical Note:
+Assessment / Plan: Morbid obesity Hypothyroidism
+Here are the codes I've found related to the clinical phrase:
+**ICD-10 Codes:**
+- **E66.9** - Obesity, unspecified (Justification: "Morbid obesity is mentioned in the assessment.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E66.9)
+- **E03.9** - Hypothyroidism, unspecified (Justification: "Hypothyroidism is referenced in the assessment.")
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E03.9)
+**CPT Codes:**
+- Since there is no specific procedure or service detailed within the provided clinical note relating to the management or treatment of obesity or hypothyroidism, a relevant CPT code cannot be identified at this time.
+If there are any additional details on treatments or procedures that were carried out, please provide that information for a more comprehensive coding example.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['E66.01', 'E03.9']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>99204</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Normal hearing exam Primary Right: Clear canal green PE tube is in place. Left: Clear canal green PE tube is in place. Tympanometry: Right: Type B with large ear canal volume. Left: Type B with large ear canal volume. Audiometry: Normal hearing from 500-8000 Hz bilaterally.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- H93.11 - Conductive hearing loss, right ear (Justification: "Type B tympanometry with large ear canal volume in the right ear may indicate a problem like otitis media or Eustachian tube dysfunction that leads to conductive hearing loss.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H93.11)
+- H93.12 - Conductive hearing loss, left ear (Justification: "Type B tympanometry with large ear canal volume in the left ear suggests conductive hearing loss.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H93.12)
+CPT Codes:
+- 92567 - Tympanometry (Justification: "Tympanometry was performed on both ears as part of the hearing exam.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/92567)
+- 92557 - Comprehensive audiometry threshold estimation and speech recognition (Justification: "Audiometry testing showing normal hearing from 500-8000 Hz bilaterally.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/92557)
+This coding accurately reflects the findings and procedures mentioned in the clinical note regarding the patient's hearing assessment and related tympanometry results.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Z01.10']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>92557</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Assessment / Plan: Mixed hyperlipidemia: - Labs 4/29/19: Chol 173 Trig 152 HDL 44 LDL 99 - Labs 11/08/2019: Cholesterol 208 triglycerides 219 HDL 46 LDL 118 on Atorvastatin 20 mg daily - Labs 11/23/2020: Cholesterol 190 triglycerides 159 HDL 49 LDL 109 on atorvastatin 20 mg daily - Labs 05/28/2021: Cholesterol 196 triglycerides 225 HDL 42 LDL 109 on atorvastatin 20 mg daily - Labs 01/26/2022: Cholesterol 194 triglycerides 234 HDL 54 LDL 93 on atorvastatin 20 mg daily - Labs 07/28/2022: Cholesterol 210 triglycerides 199 HDL 45 LDL 125 on atorvastatin 20 mg daily - Labs 12/2022: TC 205 HDL 43 TG 231 LDL 116 - Labs 1/2023: TC 170 HDL 49 TG 165 LDL 88 LFTs normal - Labs 6/2023: TC 145 HDL 45 TG 138 LDL 76 Apo 8 79 Lp(a) 38 nmol/L LFT normal 12/2022: - Lack of significant drop in LDL despite doubling of atorvastatin dose need to check Lp(a) as this may be an explanation. - Continue atorvastatin 40 mg. - Add ezetimibe 10 mg. - Repeat lipid testing in 2 months. If still not at goal titrate atorvastatin to 80 mg. - Will re-evaluate TG on next draw. Will consider changing to rosuvastatin which has better TG-lowering properties. Consider adding fenofibrate if TG still high. - F/U with Dr. 1/2023: - LDL improved but still not at goal. She will be traveling to Israel for the next month. Will hold off on additional medication changes. - Continue atorvastatin 40 mg ezetimibe 10 mg. - Repeat labs in 4 months. Would increase atorvastatin to 80 mg if still not at goal. - F/U with Dr. 6/2023: - LDL and triglycerides are both improved on current regimen. - She plans to initiate a strict diet and continue with physical activity. - Although her LDL goal is around 50 mg/dL given plans to initiate a diet and regular physical activity will defer increasing the statin dose at this time. - Repeat testing in 6 months. - F/U with Dr. - : Mixed hyperlipidemia Medications: - Atorvastatin 40 mg tablet - Take 1 tablet every day by oral route for 90 days. Qty: (90) tablets. Refills: 3. Pharmacy: OPTUM HOME DELIVERY (OPTUMRX MAIL SERVICE) - Ezetimibe 10 mg tablet - Take 1 tablet every day by oral route. Qty: (90) tablets. Refills: 3. Pharmacy: OPTUM HOME DELIVERY (OPTUMRX MAIL SERVICE) Tests: - LIPID PANEL - CMP Coronary atherosclerosis: - CAC scan 8/2022: score of 40.5 consistent with a mild burden of atherosclerosis - LDL goal: 40-50 mg/dL Apo 8 55 mg/dL - 125.84: Coronary atherosclerosis due to calcified coronary lesion Infective endocarditis of mitral valve: - No recurrence post treatment with antibiotics alone several years ago. She needs antibiotic prophylaxis for dental work or any non-sterile procedure. - 133.0: Acute and subacute infective endocarditis Essential hypertension: - Controlled on propranolol 10 mg twice daily - ECG 2/1/22: SR 72 Normal - 110: Essential (primary) hypertension - HIGH BLOOD PRESSURE: CARE INSTRUCTIONS - LEARNING ABOUT HIGH BLOOD PRESSURE Body mass index 25-29: - Overweight - : Body mass index BMI 29.0-29.9 adult - LEARNING ABOUT HEALTHY WEIGHT Mitral valve prolapse: - Stable with late systolic murmur at the apex - 134.1: Nonrheumatic mitral (valve) prolapse Mitral valve regurgitation: - ECG 11/16/18: SR 66 Normal - ECG 11/18/19: SR 63 Normal - ECG 6/2/20: SR 60 Normal - ECG 1/2023: NSR at 75 rare PVC no ST/T abnormalities - Echo 5/22/18: EF 76 with myxomatous MV and 3 eccentric anterior MR - Echo 11/18/19: EF 65 with old vegetation posterior MVP and 2 MR and LA 4.4 cm - Echo 07/02/2020: EF 67 without regional abnormalities and moderate posterior MVP with 2 eccentric MR and LAVI 54 and trace TR RVSP 21-26 mmHg - Echo 02/10/2022: EF 56 without regional abnormalities EDD 5.38 cm and ESD 3.51 cm. E/e 17. Moderate posterior MVP with small residual vegetation and 2-3 eccentric anteriorly directed MR with LAVI 46 and trace TR RVSP 22-27 mmHg - 134.0: Nonrheumatic mitral (valve) insufficiency Return to Office: - LAB on 07/25/2023 at 08:15 AM - CARD on 08/01/2023 at 08:00 AM - LAB on 12/04/2023 at 08:15 AM - CARD on 12/11/2023 at 09:00 AM Encounter Sign-Off: - Encounter signed off by Michael Jones MD 06/01/2023 - Encounter performed and documented by Michael Jones MD - Encounter reviewed &amp; signed by Michael Jones MD on 06/01/2023 at 11:37 AM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase regarding mixed hyperlipidemia, coronary atherosclerosis, infective endocarditis, essential hypertension, body mass index, mitral valve prolapse, and mitral valve regurgitation:
+### ICD-10 Codes:
+1. **E78.2 - Mixed hyperlipidemia**  
+   (Justification: "Mixed hyperlipidemia: LDL levels fluctuated with different lab results despite treatment with atorvastatin and ezetimibe.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E78.2)
+2. **I25.10 - Atherosclerotic heart disease of native coronary artery**  
+   (Justification: "Coronary atherosclerosis: CAC scan score of 40.5 indicates a mild burden of atherosclerosis.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I25.10)
+3. **I33.0 - Acute and subacute infective endocarditis**  
+   (Justification: "Infective endocarditis of mitral valve: No recurrence post treatment; she requires antibiotic prophylaxis for dental work.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I33.0)
+4. **I10 - Essential (primary) hypertension**  
+   (Justification: "Controlled hypertension on propranolol, mentioned throughout the management plan.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I10)
+5. **Z68.29 - Body mass index (BMI) 29.0-29.9, adult (overweight)**  
+   (Justification: "Body mass index 25-29 noted indicating overweight status.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/Z68.29)
+6. **I34.1 - Nonrheumatic mitral (valve) prolapse**  
+   (Justification: "Mitral valve prolapse: Stable condition with a late systolic murmur at the apex described in the assessment.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I34.1)
+7. **I34.0 - Nonrheumatic mitral (valve) insufficiency**  
+   (Justification: "Mitral valve regurgitation: Various echocardiograms indicate moderate posterior MVP with regurgitation.")  
+   [Link to Codify](https://www.aapc.com/codes/icd-10-codes/I34.0)
+### CPT Codes:
+1. **80061 - Lipid panel**  
+   (Justification: "Lipid testing is part of the management plan for mixed hyperlipidemia, with multiple lab results listed demonstrating ongoing management.")  
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/80061)
+2. **93000 - Electrocardiogram, ECG, or EKG, routine ECG with at least 12 leads; with interpretation and report**  
+   (Justification: "The patient has had multiple ECGs documented to monitor heart conditions and manage cardiovascular risks.")  
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/93000)
+3. **99214 - Established patient office or other outpatient visit, typically 25 minutes**  
+   (Justification: "Ongoing follow-up care for multiple chronic conditions including hyperlipidemia, hypertension, and heart disease.")  
+   [Link to Codify](https://www.aapc.com/codes/cpt-codes/99214)
+These codes and justifications are derived from the details provided in the clinical note. Always verify with the latest coding guidelines to ensure appropriate and accurate coding practices.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['E78.2', 'I25.84', 'I33.0', 'I10']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>99213</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hypertension nonalcoholic fatty liver disease clinically severe obesity. Morbid obesity : Morbid (severe) obesity due to excess calories. Body mass index 30 - obesity : Body mass index BMI 35.0-35.9 adult. Body Mass Index: Care Instructions Learning About Healthy Weight. Non-alcoholic fatty liver : Fatty (change of) liver not elsewhere classified. Benign essential hypertension I10: Essential (primary) hypertension. High Blood Pressure: Care Instructions Learning About High Blood Pressure. Chronic low back pain : Low back pain unspecified. Gastroesophageal reflux disease without esophagitis : Gastro-esophageal reflux disease without esophagitis. Prediabetes : Prediabetes.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- E66.01 - Morbid (severe) obesity due to excess calories (Justification: "Morbid obesity : Morbid (severe) obesity due to excess calories.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/E66.01)
+- K76.0 - Fatty (change of) liver, not elsewhere classified (Justification: "Non-alcoholic fatty liver disease.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K76.0)
+- I10 - Essential (primary) hypertension (Justification: "Benign essential hypertension I10: Essential (primary) hypertension.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/I10)
+- M54.5 - Low back pain (Justification: "Chronic low back pain : Low back pain unspecified.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/M54.5)
+- K21.9 - Gastro-esophageal reflux disease without esophagitis (Justification: "Gastroesophageal reflux disease without esophagitis.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/K21.9)
+- R73.03 - Prediabetes (Justification: "Prediabetes.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/R73.03)
+CPT Code:
+- 99401 - Preventive medicine counseling and/or risk factor reduction intervention(s) provided to an individual (Justification: "Care Instructions Learning About Healthy Weight and High Blood Pressure.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99401)
+If you have any further clinical notes or need additional assistance, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['E66.01', 'Z68.35', 'K76.0', 'I10']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>99213</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Otoscopy was unremarkable AU. Type A tymps. Mild SNHL. Consider amplification if having difficulty hearing. Annual audios.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+Clinical Note:
+"Otoscopy was unremarkable AU. Type A tymps. Mild SNHL. Consider amplification if having difficulty hearing. Annual audios."
+ICD-10 Code:
+- H90.3 - Sensorineural hearing loss, bilateral (Justification: "Mild SNHL" indicates a diagnosis of mild sensorineural hearing loss.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H90.3)
+CPT Code:
+- 92557 - Comprehensive audiometry threshold evaluation and speech recognition (Justification: "Annual audios" suggests a comprehensive hearing evaluation is being performed.)
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/92557)
+If you have any additional clinical notes or need further assistance, feel free to provide more information!</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['H90.3']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>92557</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 67-year-old male with a history of BPH and hyperlipidemia who now presents with multiple symptoms consisting of progressive fatigue decreased appetite unintentional tremor nocturia skin ecchymosis and some uremia. Laboratory studies are consistent with subacute renal failure as well as normocytic anemia. Urinalysis reveals many bacteria and many white cells indicating the patient has a urinary tract infection. I suspect benign prostatic hypertrophy has caused the urinary tract infection and possible hydronephrosis. The patient had been on a single medication for his benign prostatic hypertrophy but clearly it has not been adequate to prevent prostatic obstruction. The patient has had some difficulties obtaining medical care locally since he moved here. He has insurance but can only see MDs that are approved. He has had trouble finding a provider. He is currently hemodynamically stable. He is noted to have a hemoglobin of 6.2g/dl. There is no active bleeding. I suspect his anemia is due to renal failure. The patient is noted to have hyperkalemia and metabolic acidosis which are also consistent with his renal failure. The patient is currently being hydrated. His acidosis is being treated and his hyperkalemia is being treated with appropriate medications. He requires frequent monitoring of electrolytes in the ICU. Hydration is ongoing with sodium bicarbonate infusion per nephrology recommendations. The patient is making urine. His presumed urinary tract infection is being treated with ceftriaxone. We will follow his urine output and electrolytes to determine whether or not the patient will need dialysis. I discussed the plan of care with the patient and his wife and answered their questions. He will need definitive treatment for his BPH perhaps with a second medication or TURP. He may need a urology referral as an outpatient. DIAGNOSES: - Acute renal failure - likely progressive given very high BUN/Creatinine - Urinary tract infection - Benign prostatic hypertrophy - Metabolic acidosis - Normocytic anemia - Hyperkalemia - Hyperlipidemia PLAN by systems: Neurologically: The patient is awake alert and oriented. He has a tremor likely due to uremia. Cardiovascular: The patient has normal sinus rhythm. There is no evidence of any arrhythmias or pericardial friction rubs. He does not have heart failure on chest x-ray. The patient does have anemia which we are addressing with PRBC transfusion x 2. We will continue the patients Lipitor. Pulmonary: The patient has a clear chest x-ray and normal SPO2 without any oxygen supplementation. Heme: The patient has normocytic anemia. Iron is normal. B12 is normal. Blood transfusion of 2 units of PRBCs will be given. Consent was obtained and signed by the patient. Hold off on heparinoids given the clots in his urine. SCDs and out of bed. GI: The patient will be NPO but can have ice chips and water. Renal: The patient has acute renal failure BPH and a urinary tract infection. We will continue sodium bicarbonate infusion at 150 mL per hour. Basic metabolic panels (BMP) will be obtained every 4 hours. The patient has received an albuterol nebulizer. He has also received calcium insulin and dextrose. A Foley catheter has been placed. The patient appears to have a UTI. Continue ceftriaxone. A renal ultrasound has been ordered. Nephrology consultation already in process. Infectious disease: The patient is afebrile and nontoxic. He has a urinary tract infection as evidenced by many white cells and many bacteria in his urine. Continue ceftriaxone. Lactic acid is normal. No evidence of sepsis. Procalcitonin is not elevated. Michael Jones MD DD: 06/19/2021 20:20 TD: 06/19/2021 22:52 Job :</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+### ICD-10 Codes:
+- **N17.9** - Acute kidney failure, unspecified  
+  (Justification: "The patient presents with acute renal failure as indicated by very high BUN/Creatinine levels.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N17.9)
+- **N39.0** - Urinary tract infection, site not specified  
+  (Justification: "Urinalysis reveals many bacteria and many white cells, indicating the patient has a urinary tract infection.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N39.0)
+- **N40.1** - Benign prostatic hyperplasia with urinary obstruction  
+  (Justification: "Suspected benign prostatic hypertrophy has caused the urinary tract infection and possible hydronephrosis due to prostatic obstruction.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/N40.1)
+- **D63.8** - Anemia in chronic disease  
+  (Justification: "The patient has normocytic anemia, and the anemia is considered secondary to renal failure.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/D63.8)
+- **E87.1** - Metabolic acidosis  
+  (Justification: "The patient is noted to have metabolic acidosis which is consistent with his renal failure.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E87.1)
+- **E87.5** - Hyperkalemia  
+  (Justification: "The patient is noted to have hyperkalemia as indicated in the assessment.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E87.5)
+- **E78.5** - Hyperlipidemia, unspecified  
+  (Justification: "The patient has a history of hyperlipidemia, which is relevant to the existing medical history.")  
+  [Link to Codify](https://www.aapc.com/codes/icd-10-codes/E78.5)
+### CPT Codes:
+- **36430** - Transfusion, blood components  
+  (Justification: "Blood transfusion of 2 units of PRBCs will be given for the normocytic anemia, requiring PRBC transfusion.")  
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/36430)
+- **80307** - Drug test(s), presumptive, any drug class  
+  (Justification: "Frequent monitoring of electrolytes and possibly drug screening as part of treatment in the ICU setting is implied.")  
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/80307)
+- **85044** - Complete blood count (CBC)  
+  (Justification: "Basic metabolic panels will be obtained every 4 hours, likely to monitor blood counts.")  
+  [Link to Codify](https://www.aapc.com/codes/cpt-codes/85044)
+These codes encompass the diagnoses and management outlined in the clinical note for the patient’s acute medical issues and background conditions.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['N17.9', 'N39.0', 'N40.0', 'G93.41']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>99291</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Assessment / Plan: Proper administration technique for intranasal sprays was demonstrated with the patient today with return demonstration. : Other allergic rhinitis Seasonal allergic conjunctivitis - Bilateral Skin testing on 5/25/21: positive trees dust mite and cat. Discussed that nasal steroid is the mainstay of treatment. Start nasal steroid 1 spray twice daily. Allegra 1-2 times per day Benadryl as needed. Olopatadine 0.2 twice daily. Keep in fridge. If still symptomatic prednisolone eye drops as needed - March - mid-June. : Acute atopic conjunctivitis bilateral Olopatadine 0.2 eye drops - Instill 1 drop every day by ophthalmic route for 90 days. Qty: (3) 5 ml dropper bottles. Refills: 5. Pharmacy: TIFFANY NATURAL PHARMACY. Prednisolone acetate 1 eye drops suspension - Instill 1 drop twice a day by ophthalmic route for 5 days. Qty: (1) 10 ml dropper bottle. Refills: 0. Pharmacy: TIFFANY NATURAL PHARMACY. Allergic contact dermatitis - Hand symptoms currently improved with avoidance. Differential includes eczematous dermatitis vs allergic contact dermatitis. Skin testing on 5/25/21: positive trees dust mite and cat. Patch testing placed during last visit: positive nickel () fragrance mix () balsam of Peru (). No new positives on second read. Handouts given including a list to access for safe products. Advised to continue antihistamines and topical steroids can take second dose of antihistamines as needed. Continue antihistamines until mid-June when tree pollen season improves restart in winter (dust mite) or next March. Advised to change clothes and wipe exposed skin with a wet towel. Use products from home i.e. soap and hand sanitizer while at school. We discussed dust mite control measures including washing bedding in hot soapy water once a week using a dust-mite proof allergy barrier to cover the pillows and mattress and sweeping/vacuuming frequently to remove dust in the home. : Allergic contact dermatitis unspecified cause</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Codes:
+- J30.9 - Allergic rhinitis, unspecified (Justification: "Other allergic rhinitis seasonal allergic conjunctivitis - Bilateral." This code is relevant as the patient has seasonal allergic rhinitis.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/J30.9)
+- H10.3 - Acute atopic conjunctivitis (Justification: "Acute atopic conjunctivitis bilateral." This code captures the patient's bilateral conjunctivitis related to allergies.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H10.3)
+- L23.9 - Allergic contact dermatitis, unspecified cause (Justification: "Allergic contact dermatitis - Hand symptoms currently improved with avoidance." This code is appropriate as the patient is diagnosed with allergic contact dermatitis due to unspecified allergens.)
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/L23.9)
+CPT Codes:
+- 94640 - Pressurized metered dose inhaler (Justification: "Proper administration technique for intranasal sprays was demonstrated with the patient today with return demonstration." Though commonly associated with inhalers, this code can also relate to therapy involving sprays, but it's worth researching for a more specific code for nasal application.)
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/94640)
+- 99213 - Established patient office or other outpatient visit, typically 15-29 minutes (Justification: This visit involves discussing treatment plans, medication, and supervision of allergy management during a routine check-up.)
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/99213)
+If more specific codes for the proper administration of intranasal steroids are desired, further research into the CPT code set may be warranted, as it can have specific codes categorizing nasal procedures or therapeutic administration.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['J30.1', 'J30.81', 'J30.89', 'H10.13']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>99214</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Normal hearing exam - Primary Otoscopy Right: Clear canal healthy TM Left: Clear canal there is a mild amount of scarring on the TM Tympanometry Right: Normal middle ear pressure and compliance (Type A) Left: Normal middle ear pressure and compliance (Type A) Audiometry Normal hearing from 250-8000 Hz bilaterally.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Here are the codes I've found related to the clinical phrase:
+ICD-10 Code:
+- H90.3 - Sensorineural hearing loss, bilateral (Justification: "Normal hearing from 250-8000 Hz bilaterally indicates no hearing loss.")
+[Link to Codify](https://www.aapc.com/codes/icd-10-codes/H90.3)
+CPT Code:
+- 92557 - Comprehensive audiometry threshold evaluation and speech recognition (Justification: "Normal hearing exam presented through audiometry, which includes testing across various frequencies.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/92557)
+- 92567 - Tympanometry (Justification: "Tympanometry was performed with normal results indicating normal middle ear pressure and compliance.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/92567)
+- 92610 - Evaluation of auditory function using an audiometer (Justification: "The hearing examination involved assessing the auditory function.")
+[Link to Codify](https://www.aapc.com/codes/cpt-codes/92610)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['Z01.10']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>92567</t>
         </is>
       </c>
     </row>
